--- a/predictions/Прогнозы_GP_Matern.xlsx
+++ b/predictions/Прогнозы_GP_Matern.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18185654.70339531</v>
+        <v>16952876.99596652</v>
       </c>
       <c r="C2" t="n">
-        <v>17963582.79917005</v>
+        <v>16612665.48291373</v>
       </c>
       <c r="D2" t="n">
-        <v>17718536.0486891</v>
+        <v>16253025.29450513</v>
       </c>
       <c r="E2" t="n">
-        <v>17452374.85947492</v>
+        <v>15876611.3834341</v>
       </c>
       <c r="F2" t="n">
-        <v>17166982.23202039</v>
+        <v>15485977.9291162</v>
       </c>
       <c r="G2" t="n">
-        <v>16864239.59110562</v>
+        <v>15083562.32987536</v>
       </c>
       <c r="H2" t="n">
-        <v>16546006.71926716</v>
+        <v>14671673.54811535</v>
       </c>
       <c r="I2" t="n">
-        <v>16214105.27870958</v>
+        <v>14252484.12767665</v>
       </c>
       <c r="J2" t="n">
-        <v>15870305.46380219</v>
+        <v>13828025.29020614</v>
       </c>
       <c r="K2" t="n">
-        <v>15516315.37657265</v>
+        <v>13400184.59483546</v>
       </c>
       <c r="L2" t="n">
-        <v>15153772.762822</v>
+        <v>12970705.71387653</v>
       </c>
       <c r="M2" t="n">
-        <v>14784238.78712331</v>
+        <v>12541189.93758633</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9823162.02127176</v>
+        <v>9301544.418923104</v>
       </c>
       <c r="C3" t="n">
-        <v>9273772.489362868</v>
+        <v>8612575.214289585</v>
       </c>
       <c r="D3" t="n">
-        <v>8621610.153466282</v>
+        <v>7865437.738900531</v>
       </c>
       <c r="E3" t="n">
-        <v>7906907.789939308</v>
+        <v>7096612.102497341</v>
       </c>
       <c r="F3" t="n">
-        <v>7164763.888554368</v>
+        <v>6334980.719607498</v>
       </c>
       <c r="G3" t="n">
-        <v>6423632.937409937</v>
+        <v>5601998.313169129</v>
       </c>
       <c r="H3" t="n">
-        <v>5705164.389403475</v>
+        <v>4912504.397333383</v>
       </c>
       <c r="I3" t="n">
-        <v>5024765.866778327</v>
+        <v>4275800.875632026</v>
       </c>
       <c r="J3" t="n">
-        <v>4392500.448015673</v>
+        <v>3696773.630735721</v>
       </c>
       <c r="K3" t="n">
-        <v>3814083.403476677</v>
+        <v>3176937.512476411</v>
       </c>
       <c r="L3" t="n">
-        <v>3291845.221839547</v>
+        <v>2715347.181547779</v>
       </c>
       <c r="M3" t="n">
-        <v>2825592.521071035</v>
+        <v>2309354.430067569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15524072.97917686</v>
+        <v>32549856.64130752</v>
       </c>
       <c r="C4" t="n">
-        <v>13224924.28134946</v>
+        <v>28569588.96034075</v>
       </c>
       <c r="D4" t="n">
-        <v>10674654.6555369</v>
+        <v>23885419.64399893</v>
       </c>
       <c r="E4" t="n">
-        <v>8263010.097658357</v>
+        <v>19217659.16435974</v>
       </c>
       <c r="F4" t="n">
-        <v>6189101.236344987</v>
+        <v>14996791.38060721</v>
       </c>
       <c r="G4" t="n">
-        <v>4515103.098785577</v>
+        <v>11417318.29946924</v>
       </c>
       <c r="H4" t="n">
-        <v>3223829.438230204</v>
+        <v>8517486.08639955</v>
       </c>
       <c r="I4" t="n">
-        <v>2261200.03195048</v>
+        <v>6247479.427956106</v>
       </c>
       <c r="J4" t="n">
-        <v>1562427.190113785</v>
+        <v>4517346.814274616</v>
       </c>
       <c r="K4" t="n">
-        <v>1065908.624047478</v>
+        <v>3226616.749705144</v>
       </c>
       <c r="L4" t="n">
-        <v>719231.7761487644</v>
+        <v>2280439.486001408</v>
       </c>
       <c r="M4" t="n">
-        <v>480693.6657812994</v>
+        <v>1596921.886407794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11883194.18624755</v>
+        <v>13226392.31477388</v>
       </c>
       <c r="C5" t="n">
-        <v>9885183.839516038</v>
+        <v>13226392.31477389</v>
       </c>
       <c r="D5" t="n">
-        <v>7705718.420802339</v>
+        <v>13226392.31477389</v>
       </c>
       <c r="E5" t="n">
-        <v>5718574.857438662</v>
+        <v>13226392.3147739</v>
       </c>
       <c r="F5" t="n">
-        <v>4086196.03949679</v>
+        <v>13226392.3147739</v>
       </c>
       <c r="G5" t="n">
-        <v>2834021.24571835</v>
+        <v>13226392.31477392</v>
       </c>
       <c r="H5" t="n">
-        <v>1918993.190686732</v>
+        <v>13226392.31477393</v>
       </c>
       <c r="I5" t="n">
-        <v>1274115.726273019</v>
+        <v>13226392.31477393</v>
       </c>
       <c r="J5" t="n">
-        <v>832211.2454601247</v>
+        <v>13226392.31477394</v>
       </c>
       <c r="K5" t="n">
-        <v>536104.3512356259</v>
+        <v>13226392.31477395</v>
       </c>
       <c r="L5" t="n">
-        <v>341290.4948910174</v>
+        <v>13226392.31477395</v>
       </c>
       <c r="M5" t="n">
-        <v>215056.8255565979</v>
+        <v>13226392.31477395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5582714.280350534</v>
+        <v>540696.1150520635</v>
       </c>
       <c r="C6" t="n">
-        <v>5582714.280350555</v>
+        <v>457922.8763859899</v>
       </c>
       <c r="D6" t="n">
-        <v>5582714.280350585</v>
+        <v>387591.5684211417</v>
       </c>
       <c r="E6" t="n">
-        <v>5582714.280350614</v>
+        <v>327872.692392693</v>
       </c>
       <c r="F6" t="n">
-        <v>5582714.280350648</v>
+        <v>277198.6404117696</v>
       </c>
       <c r="G6" t="n">
-        <v>5582714.280350674</v>
+        <v>234227.4296119715</v>
       </c>
       <c r="H6" t="n">
-        <v>5582714.280350693</v>
+        <v>197811.254692297</v>
       </c>
       <c r="I6" t="n">
-        <v>5582714.280350715</v>
+        <v>166969.2506379304</v>
       </c>
       <c r="J6" t="n">
-        <v>5582714.280350748</v>
+        <v>140863.9297460421</v>
       </c>
       <c r="K6" t="n">
-        <v>5582714.280350773</v>
+        <v>118780.8212382133</v>
       </c>
       <c r="L6" t="n">
-        <v>5582714.280350797</v>
+        <v>100110.8986695255</v>
       </c>
       <c r="M6" t="n">
-        <v>5582714.280350827</v>
+        <v>84335.43086016588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1864490.969392978</v>
+        <v>8752214.604358731</v>
       </c>
       <c r="C7" t="n">
-        <v>1864490.969392981</v>
+        <v>8328966.621670805</v>
       </c>
       <c r="D7" t="n">
-        <v>1864490.969392984</v>
+        <v>7811624.029300505</v>
       </c>
       <c r="E7" t="n">
-        <v>1864490.969392986</v>
+        <v>7230777.358268617</v>
       </c>
       <c r="F7" t="n">
-        <v>1864490.969392989</v>
+        <v>6614947.175842373</v>
       </c>
       <c r="G7" t="n">
-        <v>1864490.969392991</v>
+        <v>5988521.272545479</v>
       </c>
       <c r="H7" t="n">
-        <v>1864490.969392995</v>
+        <v>5371025.763903702</v>
       </c>
       <c r="I7" t="n">
-        <v>1864490.969392997</v>
+        <v>4777171.804082043</v>
       </c>
       <c r="J7" t="n">
-        <v>1864490.969392999</v>
+        <v>4217316.255128333</v>
       </c>
       <c r="K7" t="n">
-        <v>1864490.969393001</v>
+        <v>3698108.402317248</v>
       </c>
       <c r="L7" t="n">
-        <v>1864490.969393004</v>
+        <v>3223184.553219581</v>
       </c>
       <c r="M7" t="n">
-        <v>1864490.969393007</v>
+        <v>2793831.571997601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169882.100665819</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="C8" t="n">
-        <v>1176175.446339687</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="D8" t="n">
-        <v>1182227.416618629</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="E8" t="n">
-        <v>1188036.627759846</v>
+        <v>16135741.01369724</v>
       </c>
       <c r="F8" t="n">
-        <v>1193601.99902307</v>
+        <v>16135741.01369724</v>
       </c>
       <c r="G8" t="n">
-        <v>1198922.738439004</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="H8" t="n">
-        <v>1203998.329072513</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="I8" t="n">
-        <v>1208828.515765697</v>
+        <v>16135741.01369724</v>
       </c>
       <c r="J8" t="n">
-        <v>1213413.292346308</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="K8" t="n">
-        <v>1217752.889287445</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="L8" t="n">
-        <v>1221847.761804798</v>
+        <v>16135741.01369723</v>
       </c>
       <c r="M8" t="n">
-        <v>1225698.578378128</v>
+        <v>16135741.01369723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5616894.982179405</v>
+        <v>24989741.28437165</v>
       </c>
       <c r="C9" t="n">
-        <v>4472635.566268597</v>
+        <v>24824690.56912101</v>
       </c>
       <c r="D9" t="n">
-        <v>3243971.573693179</v>
+        <v>24611295.12440611</v>
       </c>
       <c r="E9" t="n">
-        <v>2202623.346781285</v>
+        <v>24352342.00552476</v>
       </c>
       <c r="F9" t="n">
-        <v>1424960.336280755</v>
+        <v>24050902.68599425</v>
       </c>
       <c r="G9" t="n">
-        <v>888623.88803013</v>
+        <v>23710240.39006242</v>
       </c>
       <c r="H9" t="n">
-        <v>538460.9395879052</v>
+        <v>23333732.45929248</v>
       </c>
       <c r="I9" t="n">
-        <v>318844.5903465857</v>
+        <v>22924805.80188717</v>
       </c>
       <c r="J9" t="n">
-        <v>185269.5496985995</v>
+        <v>22486883.69883447</v>
       </c>
       <c r="K9" t="n">
-        <v>105972.9983972244</v>
+        <v>22023342.44216485</v>
       </c>
       <c r="L9" t="n">
-        <v>59814.51961740843</v>
+        <v>21537476.46008189</v>
       </c>
       <c r="M9" t="n">
-        <v>33378.57166958178</v>
+        <v>21032470.74369258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3681401.286102125</v>
+        <v>12314905.90378186</v>
       </c>
       <c r="C10" t="n">
-        <v>3681406.409786982</v>
+        <v>10467734.68300058</v>
       </c>
       <c r="D10" t="n">
-        <v>3681411.502816189</v>
+        <v>8682360.542237634</v>
       </c>
       <c r="E10" t="n">
-        <v>3681416.56518939</v>
+        <v>7053188.622500672</v>
       </c>
       <c r="F10" t="n">
-        <v>3681421.596906178</v>
+        <v>5629209.158270287</v>
       </c>
       <c r="G10" t="n">
-        <v>3681426.597966213</v>
+        <v>4425250.528795371</v>
       </c>
       <c r="H10" t="n">
-        <v>3681431.568369102</v>
+        <v>3433760.373568185</v>
       </c>
       <c r="I10" t="n">
-        <v>3681436.508114491</v>
+        <v>2634469.783888569</v>
       </c>
       <c r="J10" t="n">
-        <v>3681441.417202003</v>
+        <v>2001364.265494112</v>
       </c>
       <c r="K10" t="n">
-        <v>3681446.29563128</v>
+        <v>1507241.596709694</v>
       </c>
       <c r="L10" t="n">
-        <v>3681451.143401962</v>
+        <v>1126403.489758182</v>
       </c>
       <c r="M10" t="n">
-        <v>3681455.960513685</v>
+        <v>836031.89498598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>232372.3202507154</v>
+        <v>15060479.65379865</v>
       </c>
       <c r="C11" t="n">
-        <v>152652.6307960834</v>
+        <v>14760585.36316605</v>
       </c>
       <c r="D11" t="n">
-        <v>93000.29268418555</v>
+        <v>14369520.96673528</v>
       </c>
       <c r="E11" t="n">
-        <v>49451.85207848792</v>
+        <v>13901551.5047565</v>
       </c>
       <c r="F11" t="n">
-        <v>18549.85532276181</v>
+        <v>13371181.8199622</v>
       </c>
       <c r="G11" t="n">
-        <v>-2618.095850736951</v>
+        <v>12792460.50291615</v>
       </c>
       <c r="H11" t="n">
-        <v>-16440.11724671494</v>
+        <v>12178523.89033394</v>
       </c>
       <c r="I11" t="n">
-        <v>-24831.5251329123</v>
+        <v>11541319.42886539</v>
       </c>
       <c r="J11" t="n">
-        <v>-29299.02866774733</v>
+        <v>10891461.01962518</v>
       </c>
       <c r="K11" t="n">
-        <v>-31006.9600180597</v>
+        <v>10238179.58137937</v>
       </c>
       <c r="L11" t="n">
-        <v>-30839.6169817734</v>
+        <v>9589340.523123458</v>
       </c>
       <c r="M11" t="n">
-        <v>-29456.79704695889</v>
+        <v>8951506.516880086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>228395.6421980453</v>
+        <v>32175080.26801989</v>
       </c>
       <c r="C12" t="n">
-        <v>228783.0936708028</v>
+        <v>32175080.26801988</v>
       </c>
       <c r="D12" t="n">
-        <v>228598.4309365147</v>
+        <v>32175080.26801989</v>
       </c>
       <c r="E12" t="n">
-        <v>227585.5113184717</v>
+        <v>32175080.2680199</v>
       </c>
       <c r="F12" t="n">
-        <v>225611.1204612001</v>
+        <v>32175080.2680199</v>
       </c>
       <c r="G12" t="n">
-        <v>222631.8954732288</v>
+        <v>32175080.26801989</v>
       </c>
       <c r="H12" t="n">
-        <v>218668.4029008868</v>
+        <v>32175080.26801987</v>
       </c>
       <c r="I12" t="n">
-        <v>213784.9972124695</v>
+        <v>32175080.26801988</v>
       </c>
       <c r="J12" t="n">
-        <v>208074.3302703962</v>
+        <v>32175080.26801987</v>
       </c>
       <c r="K12" t="n">
-        <v>201645.5856887599</v>
+        <v>32175080.26801987</v>
       </c>
       <c r="L12" t="n">
-        <v>194615.6807443653</v>
+        <v>32175080.26801988</v>
       </c>
       <c r="M12" t="n">
-        <v>187102.8182981495</v>
+        <v>32175080.26801988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2183200.690072411</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="C13" t="n">
-        <v>2065949.306619404</v>
+        <v>34619036.15828985</v>
       </c>
       <c r="D13" t="n">
-        <v>1909894.326678072</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="E13" t="n">
-        <v>1730663.032595626</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="F13" t="n">
-        <v>1541635.639552581</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="G13" t="n">
-        <v>1353207.670697678</v>
+        <v>34619036.15828983</v>
       </c>
       <c r="H13" t="n">
-        <v>1172809.537263664</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="I13" t="n">
-        <v>1005281.575484847</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="J13" t="n">
-        <v>853375.6145762062</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="K13" t="n">
-        <v>718260.3223917247</v>
+        <v>34619036.15828983</v>
       </c>
       <c r="L13" t="n">
-        <v>599971.101227773</v>
+        <v>34619036.15828984</v>
       </c>
       <c r="M13" t="n">
-        <v>497781.9444874046</v>
+        <v>34619036.15828984</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68185.25960115931</v>
+        <v>617663.5550818318</v>
       </c>
       <c r="C14" t="n">
-        <v>49387.45416405117</v>
+        <v>519984.0165732413</v>
       </c>
       <c r="D14" t="n">
-        <v>34501.99876407029</v>
+        <v>428508.3136283763</v>
       </c>
       <c r="E14" t="n">
-        <v>23464.09815555025</v>
+        <v>346902.7233571643</v>
       </c>
       <c r="F14" t="n">
-        <v>15627.95928625441</v>
+        <v>276657.3486489576</v>
       </c>
       <c r="G14" t="n">
-        <v>10236.04625996327</v>
+        <v>217829.5216200153</v>
       </c>
       <c r="H14" t="n">
-        <v>6612.794882520042</v>
+        <v>169627.3035837002</v>
       </c>
       <c r="I14" t="n">
-        <v>4223.037018471199</v>
+        <v>130827.7333663634</v>
       </c>
       <c r="J14" t="n">
-        <v>2670.501028102489</v>
+        <v>100054.9685548777</v>
       </c>
       <c r="K14" t="n">
-        <v>1674.448137310025</v>
+        <v>75951.3683423484</v>
       </c>
       <c r="L14" t="n">
-        <v>1042.148553751713</v>
+        <v>57272.44100993179</v>
       </c>
       <c r="M14" t="n">
-        <v>644.3892437901352</v>
+        <v>42930.844222153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>713331.6828136703</v>
+        <v>3823083.43509105</v>
       </c>
       <c r="C15" t="n">
-        <v>688586.8333348392</v>
+        <v>3763419.937566874</v>
       </c>
       <c r="D15" t="n">
-        <v>657826.8868759731</v>
+        <v>3690153.368310203</v>
       </c>
       <c r="E15" t="n">
-        <v>622402.0632927547</v>
+        <v>3604768.581482404</v>
       </c>
       <c r="F15" t="n">
-        <v>583689.7696833584</v>
+        <v>3508842.811782988</v>
       </c>
       <c r="G15" t="n">
-        <v>542978.5384144189</v>
+        <v>3403978.359702373</v>
       </c>
       <c r="H15" t="n">
-        <v>501405.1179263748</v>
+        <v>3291752.277503434</v>
       </c>
       <c r="I15" t="n">
-        <v>459926.9463797027</v>
+        <v>3173679.753115471</v>
       </c>
       <c r="J15" t="n">
-        <v>419317.3806455115</v>
+        <v>3051188.453004141</v>
       </c>
       <c r="K15" t="n">
-        <v>380174.8290087184</v>
+        <v>2925601.559977822</v>
       </c>
       <c r="L15" t="n">
-        <v>342939.6882965452</v>
+        <v>2798127.641115211</v>
       </c>
       <c r="M15" t="n">
-        <v>307914.9753654176</v>
+        <v>2669855.815946131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1160612.006437549</v>
+        <v>9256108.633195315</v>
       </c>
       <c r="C16" t="n">
-        <v>1091831.522948898</v>
+        <v>9142071.668317838</v>
       </c>
       <c r="D16" t="n">
-        <v>1009680.862865257</v>
+        <v>9010065.31123486</v>
       </c>
       <c r="E16" t="n">
-        <v>919731.2490176957</v>
+        <v>8861815.206959888</v>
       </c>
       <c r="F16" t="n">
-        <v>826779.271499217</v>
+        <v>8699039.276350383</v>
       </c>
       <c r="G16" t="n">
-        <v>734632.5508083386</v>
+        <v>8523425.392095292</v>
       </c>
       <c r="H16" t="n">
-        <v>646105.1900911017</v>
+        <v>8336613.697161848</v>
       </c>
       <c r="I16" t="n">
-        <v>563120.0391471289</v>
+        <v>8140182.882472126</v>
       </c>
       <c r="J16" t="n">
-        <v>486855.5711316792</v>
+        <v>7935639.826980649</v>
       </c>
       <c r="K16" t="n">
-        <v>417901.5033374195</v>
+        <v>7724412.079719134</v>
       </c>
       <c r="L16" t="n">
-        <v>356403.9512778015</v>
+        <v>7507842.730857033</v>
       </c>
       <c r="M16" t="n">
-        <v>302191.1614554383</v>
+        <v>7287187.278374834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3416198.238181892</v>
+        <v>4294032.235828333</v>
       </c>
       <c r="C17" t="n">
-        <v>3126607.906498301</v>
+        <v>4176447.855944187</v>
       </c>
       <c r="D17" t="n">
-        <v>2819317.091677417</v>
+        <v>4046337.007356601</v>
       </c>
       <c r="E17" t="n">
-        <v>2507708.521487761</v>
+        <v>3905852.888455356</v>
       </c>
       <c r="F17" t="n">
-        <v>2203183.066339104</v>
+        <v>3757119.789963678</v>
       </c>
       <c r="G17" t="n">
-        <v>1914358.416378253</v>
+        <v>3602171.89856805</v>
       </c>
       <c r="H17" t="n">
-        <v>1647045.555580894</v>
+        <v>3442911.687124751</v>
       </c>
       <c r="I17" t="n">
-        <v>1404597.17818346</v>
+        <v>3281083.530561326</v>
       </c>
       <c r="J17" t="n">
-        <v>1188394.234983133</v>
+        <v>3118259.016519578</v>
       </c>
       <c r="K17" t="n">
-        <v>998343.5008036062</v>
+        <v>2955831.105436519</v>
       </c>
       <c r="L17" t="n">
-        <v>833323.572496257</v>
+        <v>2795014.859760191</v>
       </c>
       <c r="M17" t="n">
-        <v>691554.3732204991</v>
+        <v>2636852.926268447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>925990.4722802644</v>
+        <v>2753014.050164273</v>
       </c>
       <c r="C18" t="n">
-        <v>925990.4722802648</v>
+        <v>2753014.050164343</v>
       </c>
       <c r="D18" t="n">
-        <v>925990.4722802641</v>
+        <v>2753014.050164415</v>
       </c>
       <c r="E18" t="n">
-        <v>925990.4722802632</v>
+        <v>2753014.050164484</v>
       </c>
       <c r="F18" t="n">
-        <v>925990.4722802634</v>
+        <v>2753014.050164553</v>
       </c>
       <c r="G18" t="n">
-        <v>925990.4722802631</v>
+        <v>2753014.05016462</v>
       </c>
       <c r="H18" t="n">
-        <v>925990.472280263</v>
+        <v>2753014.050164686</v>
       </c>
       <c r="I18" t="n">
-        <v>925990.4722802623</v>
+        <v>2753014.050164752</v>
       </c>
       <c r="J18" t="n">
-        <v>925990.4722802616</v>
+        <v>2753014.050164815</v>
       </c>
       <c r="K18" t="n">
-        <v>925990.4722802613</v>
+        <v>2753014.050164876</v>
       </c>
       <c r="L18" t="n">
-        <v>925990.4722802617</v>
+        <v>2753014.050164939</v>
       </c>
       <c r="M18" t="n">
-        <v>925990.4722802611</v>
+        <v>2753014.050164997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2696.184267325036</v>
+        <v>4926303.620620479</v>
       </c>
       <c r="C19" t="n">
-        <v>-3841.370006613943</v>
+        <v>4926303.62062048</v>
       </c>
       <c r="D19" t="n">
-        <v>-4746.204676325768</v>
+        <v>4926303.620620481</v>
       </c>
       <c r="E19" t="n">
-        <v>-5445.633239992465</v>
+        <v>4926303.620620481</v>
       </c>
       <c r="F19" t="n">
-        <v>-5970.193826628012</v>
+        <v>4926303.620620482</v>
       </c>
       <c r="G19" t="n">
-        <v>-6346.53060611504</v>
+        <v>4926303.620620482</v>
       </c>
       <c r="H19" t="n">
-        <v>-6597.850184547744</v>
+        <v>4926303.62062048</v>
       </c>
       <c r="I19" t="n">
-        <v>-6744.327471370787</v>
+        <v>4926303.62062048</v>
       </c>
       <c r="J19" t="n">
-        <v>-6803.466367456</v>
+        <v>4926303.620620478</v>
       </c>
       <c r="K19" t="n">
-        <v>-6790.420079154686</v>
+        <v>4926303.620620478</v>
       </c>
       <c r="L19" t="n">
-        <v>-6718.275372419004</v>
+        <v>4926303.62062048</v>
       </c>
       <c r="M19" t="n">
-        <v>-6598.304638346075</v>
+        <v>4926303.62062048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2141627.554388058</v>
+        <v>1349238.621302734</v>
       </c>
       <c r="C20" t="n">
-        <v>2141627.554388039</v>
+        <v>1251825.607541521</v>
       </c>
       <c r="D20" t="n">
-        <v>2141627.55438802</v>
+        <v>1159493.451324948</v>
       </c>
       <c r="E20" t="n">
-        <v>2141627.554387999</v>
+        <v>1072293.593257223</v>
       </c>
       <c r="F20" t="n">
-        <v>2141627.554387978</v>
+        <v>990206.7695578493</v>
       </c>
       <c r="G20" t="n">
-        <v>2141627.554387956</v>
+        <v>913157.6257466465</v>
       </c>
       <c r="H20" t="n">
-        <v>2141627.554387933</v>
+        <v>841027.0132192436</v>
       </c>
       <c r="I20" t="n">
-        <v>2141627.55438791</v>
+        <v>773662.2964143765</v>
       </c>
       <c r="J20" t="n">
-        <v>2141627.554387887</v>
+        <v>710885.9548355078</v>
       </c>
       <c r="K20" t="n">
-        <v>2141627.554387862</v>
+        <v>652502.7262710894</v>
       </c>
       <c r="L20" t="n">
-        <v>2141627.554387837</v>
+        <v>598305.5044791047</v>
       </c>
       <c r="M20" t="n">
-        <v>2141627.554387811</v>
+        <v>548080.1757636034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1019332.596022046</v>
+        <v>2782749.474768091</v>
       </c>
       <c r="C21" t="n">
-        <v>1019846.975048581</v>
+        <v>2782749.474768092</v>
       </c>
       <c r="D21" t="n">
-        <v>1020309.832490645</v>
+        <v>2782749.474768092</v>
       </c>
       <c r="E21" t="n">
-        <v>1020720.980036245</v>
+        <v>2782749.474768091</v>
       </c>
       <c r="F21" t="n">
-        <v>1021080.258256347</v>
+        <v>2782749.474768092</v>
       </c>
       <c r="G21" t="n">
-        <v>1021387.535726378</v>
+        <v>2782749.474768091</v>
       </c>
       <c r="H21" t="n">
-        <v>1021642.70816732</v>
+        <v>2782749.474768091</v>
       </c>
       <c r="I21" t="n">
-        <v>1021845.697606008</v>
+        <v>2782749.47476809</v>
       </c>
       <c r="J21" t="n">
-        <v>1021996.45155427</v>
+        <v>2782749.47476809</v>
       </c>
       <c r="K21" t="n">
-        <v>1022094.942206542</v>
+        <v>2782749.47476809</v>
       </c>
       <c r="L21" t="n">
-        <v>1022141.1656556</v>
+        <v>2782749.474768089</v>
       </c>
       <c r="M21" t="n">
-        <v>1022135.141126059</v>
+        <v>2782749.474768087</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>253893.1127933073</v>
+        <v>10317254.64092578</v>
       </c>
       <c r="C22" t="n">
-        <v>201214.7932575782</v>
+        <v>10266607.71038217</v>
       </c>
       <c r="D22" t="n">
-        <v>144635.3068530824</v>
+        <v>10205738.74806896</v>
       </c>
       <c r="E22" t="n">
-        <v>97048.51852770454</v>
+        <v>10135066.50440061</v>
       </c>
       <c r="F22" t="n">
-        <v>61925.85771482522</v>
+        <v>10055042.43596006</v>
       </c>
       <c r="G22" t="n">
-        <v>38040.01709786814</v>
+        <v>9966143.175747987</v>
       </c>
       <c r="H22" t="n">
-        <v>22684.55802195623</v>
+        <v>9868863.881235719</v>
       </c>
       <c r="I22" t="n">
-        <v>13210.44538712639</v>
+        <v>9763712.378171347</v>
       </c>
       <c r="J22" t="n">
-        <v>7545.48297650273</v>
+        <v>9651204.024919288</v>
       </c>
       <c r="K22" t="n">
-        <v>4240.881138248907</v>
+        <v>9531857.228415582</v>
       </c>
       <c r="L22" t="n">
-        <v>2351.338018194795</v>
+        <v>9406189.548633199</v>
       </c>
       <c r="M22" t="n">
-        <v>1288.605773406111</v>
+        <v>9274714.333810007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6768417.922124378</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6768417.922118568</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6768417.922112555</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6768417.922106337</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6768417.922099915</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6768417.922093293</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6768417.922086463</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6768417.922079432</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6768417.9220722</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6768417.922064763</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6768417.92205712</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6768417.922049278</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8257442.828286158</v>
+        <v>8666281.416306596</v>
       </c>
       <c r="C24" t="n">
-        <v>8257442.828286156</v>
+        <v>8617679.718091574</v>
       </c>
       <c r="D24" t="n">
-        <v>8257442.82828616</v>
+        <v>8557292.894644964</v>
       </c>
       <c r="E24" t="n">
-        <v>8257442.82828616</v>
+        <v>8485675.616308682</v>
       </c>
       <c r="F24" t="n">
-        <v>8257442.828286158</v>
+        <v>8403435.797758477</v>
       </c>
       <c r="G24" t="n">
-        <v>8257442.828286158</v>
+        <v>8311220.506131517</v>
       </c>
       <c r="H24" t="n">
-        <v>8257442.828286162</v>
+        <v>8209703.784426713</v>
       </c>
       <c r="I24" t="n">
-        <v>8257442.828286164</v>
+        <v>8099576.181041636</v>
       </c>
       <c r="J24" t="n">
-        <v>8257442.828286164</v>
+        <v>7981535.796662902</v>
       </c>
       <c r="K24" t="n">
-        <v>8257442.82828616</v>
+        <v>7856280.67823724</v>
       </c>
       <c r="L24" t="n">
-        <v>8257442.828286165</v>
+        <v>7724502.406576959</v>
       </c>
       <c r="M24" t="n">
-        <v>8257442.828286164</v>
+        <v>7586880.739441737</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2671008.755473886</v>
+        <v>4698657.331534451</v>
       </c>
       <c r="C25" t="n">
-        <v>2671008.755473888</v>
+        <v>4698657.331534448</v>
       </c>
       <c r="D25" t="n">
-        <v>2671008.755473891</v>
+        <v>4698657.331534449</v>
       </c>
       <c r="E25" t="n">
-        <v>2671008.755473894</v>
+        <v>4698657.331534447</v>
       </c>
       <c r="F25" t="n">
-        <v>2671008.755473894</v>
+        <v>4698657.331534446</v>
       </c>
       <c r="G25" t="n">
-        <v>2671008.755473895</v>
+        <v>4698657.331534445</v>
       </c>
       <c r="H25" t="n">
-        <v>2671008.755473897</v>
+        <v>4698657.331534443</v>
       </c>
       <c r="I25" t="n">
-        <v>2671008.755473897</v>
+        <v>4698657.331534444</v>
       </c>
       <c r="J25" t="n">
-        <v>2671008.755473898</v>
+        <v>4698657.331534444</v>
       </c>
       <c r="K25" t="n">
-        <v>2671008.755473898</v>
+        <v>4698657.331534442</v>
       </c>
       <c r="L25" t="n">
-        <v>2671008.755473898</v>
+        <v>4698657.331534442</v>
       </c>
       <c r="M25" t="n">
-        <v>2671008.755473897</v>
+        <v>4698657.33153444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10533539.38770348</v>
+        <v>8273740.3360801</v>
       </c>
       <c r="C26" t="n">
-        <v>10326891.37595029</v>
+        <v>8273740.336080156</v>
       </c>
       <c r="D26" t="n">
-        <v>10075326.06571872</v>
+        <v>8273740.336080199</v>
       </c>
       <c r="E26" t="n">
-        <v>9785160.735052697</v>
+        <v>8273740.336080255</v>
       </c>
       <c r="F26" t="n">
-        <v>9462809.088147679</v>
+        <v>8273740.336080303</v>
       </c>
       <c r="G26" t="n">
-        <v>9114542.006966282</v>
+        <v>8273740.336080353</v>
       </c>
       <c r="H26" t="n">
-        <v>8746320.518776968</v>
+        <v>8273740.336080397</v>
       </c>
       <c r="I26" t="n">
-        <v>8363685.003205201</v>
+        <v>8273740.33608045</v>
       </c>
       <c r="J26" t="n">
-        <v>7971687.726222197</v>
+        <v>8273740.336080499</v>
       </c>
       <c r="K26" t="n">
-        <v>7574858.312391312</v>
+        <v>8273740.336080538</v>
       </c>
       <c r="L26" t="n">
-        <v>7177193.840570685</v>
+        <v>8273740.336080585</v>
       </c>
       <c r="M26" t="n">
-        <v>6782166.947679419</v>
+        <v>8273740.33608063</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14735371.39342211</v>
+        <v>3262195.922477423</v>
       </c>
       <c r="C27" t="n">
-        <v>14710250.74040204</v>
+        <v>3262196.204970658</v>
       </c>
       <c r="D27" t="n">
-        <v>14664267.6968564</v>
+        <v>3262196.483981363</v>
       </c>
       <c r="E27" t="n">
-        <v>14598068.02609634</v>
+        <v>3262196.759509536</v>
       </c>
       <c r="F27" t="n">
-        <v>14512424.72850005</v>
+        <v>3262197.031555176</v>
       </c>
       <c r="G27" t="n">
-        <v>14408211.85219623</v>
+        <v>3262197.300118283</v>
       </c>
       <c r="H27" t="n">
-        <v>14286381.55677046</v>
+        <v>3262197.565198844</v>
       </c>
       <c r="I27" t="n">
-        <v>14147944.0964356</v>
+        <v>3262197.826796866</v>
       </c>
       <c r="J27" t="n">
-        <v>13993950.41988925</v>
+        <v>3262198.084912349</v>
       </c>
       <c r="K27" t="n">
-        <v>13825477.11220718</v>
+        <v>3262198.33954528</v>
       </c>
       <c r="L27" t="n">
-        <v>13643613.42981271</v>
+        <v>3262198.590695668</v>
       </c>
       <c r="M27" t="n">
-        <v>13449450.20301607</v>
+        <v>3262198.8383635</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13742712.73925302</v>
+        <v>8599698.931909999</v>
       </c>
       <c r="C28" t="n">
-        <v>11905400.23246432</v>
+        <v>8599698.931910098</v>
       </c>
       <c r="D28" t="n">
-        <v>10027168.52873301</v>
+        <v>8599698.931910187</v>
       </c>
       <c r="E28" t="n">
-        <v>8245524.765890166</v>
+        <v>8599698.931910282</v>
       </c>
       <c r="F28" t="n">
-        <v>6644557.589034645</v>
+        <v>8599698.931910377</v>
       </c>
       <c r="G28" t="n">
-        <v>5263195.954001053</v>
+        <v>8599698.931910463</v>
       </c>
       <c r="H28" t="n">
-        <v>4108215.936989146</v>
+        <v>8599698.931910558</v>
       </c>
       <c r="I28" t="n">
-        <v>3166370.497663534</v>
+        <v>8599698.931910645</v>
       </c>
       <c r="J28" t="n">
-        <v>2413789.480935963</v>
+        <v>8599698.931910735</v>
       </c>
       <c r="K28" t="n">
-        <v>1822483.792932842</v>
+        <v>8599698.931910822</v>
       </c>
       <c r="L28" t="n">
-        <v>1364429.595600631</v>
+        <v>8599698.931910895</v>
       </c>
       <c r="M28" t="n">
-        <v>1013859.520051549</v>
+        <v>8599698.93191099</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14392517.91584029</v>
+        <v>1694287.422150863</v>
       </c>
       <c r="C29" t="n">
-        <v>13888183.9277576</v>
+        <v>1619482.445762258</v>
       </c>
       <c r="D29" t="n">
-        <v>13255857.31894615</v>
+        <v>1538647.468223073</v>
       </c>
       <c r="E29" t="n">
-        <v>12526199.05963167</v>
+        <v>1453641.28974687</v>
       </c>
       <c r="F29" t="n">
-        <v>11729382.52572313</v>
+        <v>1366175.836066605</v>
       </c>
       <c r="G29" t="n">
-        <v>10892989.7099064</v>
+        <v>1277772.26516743</v>
       </c>
       <c r="H29" t="n">
-        <v>10040937.89157892</v>
+        <v>1189741.253619377</v>
       </c>
       <c r="I29" t="n">
-        <v>9193082.64740997</v>
+        <v>1103179.913075563</v>
       </c>
       <c r="J29" t="n">
-        <v>8365247.384719579</v>
+        <v>1018979.721275587</v>
       </c>
       <c r="K29" t="n">
-        <v>7569505.781587681</v>
+        <v>937841.340142744</v>
       </c>
       <c r="L29" t="n">
-        <v>6814598.757295703</v>
+        <v>860293.332256535</v>
       </c>
       <c r="M29" t="n">
-        <v>6106407.273162107</v>
+        <v>786712.6523618476</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31994648.6741869</v>
+        <v>344247.9154836166</v>
       </c>
       <c r="C30" t="n">
-        <v>31994648.6741869</v>
+        <v>313995.8661298325</v>
       </c>
       <c r="D30" t="n">
-        <v>31994648.6741869</v>
+        <v>285210.118415561</v>
       </c>
       <c r="E30" t="n">
-        <v>31994648.67418689</v>
+        <v>258026.1677135533</v>
       </c>
       <c r="F30" t="n">
-        <v>31994648.6741869</v>
+        <v>232541.2575169411</v>
       </c>
       <c r="G30" t="n">
-        <v>31994648.6741869</v>
+        <v>208813.1298700969</v>
       </c>
       <c r="H30" t="n">
-        <v>31994648.6741869</v>
+        <v>186862.4119407007</v>
       </c>
       <c r="I30" t="n">
-        <v>31994648.67418689</v>
+        <v>166677.0136594947</v>
       </c>
       <c r="J30" t="n">
-        <v>31994648.67418689</v>
+        <v>148217.4438593072</v>
       </c>
       <c r="K30" t="n">
-        <v>31994648.67418689</v>
+        <v>131422.3338461828</v>
       </c>
       <c r="L30" t="n">
-        <v>31994648.67418689</v>
+        <v>116213.7271296749</v>
       </c>
       <c r="M30" t="n">
-        <v>31994648.67418689</v>
+        <v>102501.881768441</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.035022549</v>
       </c>
       <c r="C31" t="n">
-        <v>34477850.93681152</v>
+        <v>613926.0350225742</v>
       </c>
       <c r="D31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350225999</v>
       </c>
       <c r="E31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350226243</v>
       </c>
       <c r="F31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350226486</v>
       </c>
       <c r="G31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350226726</v>
       </c>
       <c r="H31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350226962</v>
       </c>
       <c r="I31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350227191</v>
       </c>
       <c r="J31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350227425</v>
       </c>
       <c r="K31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350227644</v>
       </c>
       <c r="L31" t="n">
-        <v>34477850.93681151</v>
+        <v>613926.0350227868</v>
       </c>
       <c r="M31" t="n">
-        <v>34477850.93681149</v>
+        <v>613926.0350228079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>877097.5782433371</v>
+        <v>1466065.067177647</v>
       </c>
       <c r="C32" t="n">
-        <v>801958.466257601</v>
+        <v>1425513.77673523</v>
       </c>
       <c r="D32" t="n">
-        <v>716292.8648748914</v>
+        <v>1382427.412459541</v>
       </c>
       <c r="E32" t="n">
-        <v>626958.5314145453</v>
+        <v>1337263.875076358</v>
       </c>
       <c r="F32" t="n">
-        <v>539297.2323073089</v>
+        <v>1290466.044641459</v>
       </c>
       <c r="G32" t="n">
-        <v>456991.0592409136</v>
+        <v>1242454.463593378</v>
       </c>
       <c r="H32" t="n">
-        <v>382255.8743720106</v>
+        <v>1193622.274701338</v>
       </c>
       <c r="I32" t="n">
-        <v>316152.6937580692</v>
+        <v>1144331.964729499</v>
       </c>
       <c r="J32" t="n">
-        <v>258906.7078743645</v>
+        <v>1094913.539842883</v>
       </c>
       <c r="K32" t="n">
-        <v>210184.9455352571</v>
+        <v>1045663.822559682</v>
       </c>
       <c r="L32" t="n">
-        <v>169316.5616753965</v>
+        <v>996846.6140386983</v>
       </c>
       <c r="M32" t="n">
-        <v>135456.2277960451</v>
+        <v>948693.5110866895</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4014862.963371377</v>
+        <v>2122562.410211356</v>
       </c>
       <c r="C33" t="n">
-        <v>3959342.690804032</v>
+        <v>2053884.299854364</v>
       </c>
       <c r="D33" t="n">
-        <v>3884232.867955779</v>
+        <v>1975727.187866909</v>
       </c>
       <c r="E33" t="n">
-        <v>3791563.232722378</v>
+        <v>1889977.407257391</v>
       </c>
       <c r="F33" t="n">
-        <v>3683638.870393695</v>
+        <v>1798522.620522499</v>
       </c>
       <c r="G33" t="n">
-        <v>3562878.833070127</v>
+        <v>1703158.977437405</v>
       </c>
       <c r="H33" t="n">
-        <v>3431698.562989412</v>
+        <v>1605533.149992727</v>
       </c>
       <c r="I33" t="n">
-        <v>3292426.700272341</v>
+        <v>1507109.876364302</v>
       </c>
       <c r="J33" t="n">
-        <v>3147248.652321884</v>
+        <v>1409157.811332386</v>
       </c>
       <c r="K33" t="n">
-        <v>2998170.780727685</v>
+        <v>1312748.187579178</v>
       </c>
       <c r="L33" t="n">
-        <v>2847000.275544018</v>
+        <v>1218762.132372975</v>
       </c>
       <c r="M33" t="n">
-        <v>2695336.781063206</v>
+        <v>1127903.531334599</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9533284.045063943</v>
+        <v>2414879.874394439</v>
       </c>
       <c r="C34" t="n">
-        <v>9314215.088453399</v>
+        <v>2418712.356995119</v>
       </c>
       <c r="D34" t="n">
-        <v>9065393.588808201</v>
+        <v>2422302.736160082</v>
       </c>
       <c r="E34" t="n">
-        <v>8791214.198941618</v>
+        <v>2425650.452210746</v>
       </c>
       <c r="F34" t="n">
-        <v>8496076.280869668</v>
+        <v>2428755.132692636</v>
       </c>
       <c r="G34" t="n">
-        <v>8184252.332224643</v>
+        <v>2431616.584959206</v>
       </c>
       <c r="H34" t="n">
-        <v>7859795.032468826</v>
+        <v>2434234.788967913</v>
       </c>
       <c r="I34" t="n">
-        <v>7526474.786800695</v>
+        <v>2436609.890283282</v>
       </c>
       <c r="J34" t="n">
-        <v>7187741.116948821</v>
+        <v>2438742.193281886</v>
       </c>
       <c r="K34" t="n">
-        <v>6846702.475108875</v>
+        <v>2440632.154554219</v>
       </c>
       <c r="L34" t="n">
-        <v>6506120.078357143</v>
+        <v>2442280.376498611</v>
       </c>
       <c r="M34" t="n">
-        <v>6168412.208480176</v>
+        <v>2443687.601102391</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4682442.840968907</v>
+        <v>1186886.516907656</v>
       </c>
       <c r="C35" t="n">
-        <v>4656239.651035147</v>
+        <v>1133954.899676627</v>
       </c>
       <c r="D35" t="n">
-        <v>4620913.268775273</v>
+        <v>1080619.32119205</v>
       </c>
       <c r="E35" t="n">
-        <v>4576993.756157109</v>
+        <v>1027284.763405774</v>
       </c>
       <c r="F35" t="n">
-        <v>4525056.132395604</v>
+        <v>974316.5679613727</v>
       </c>
       <c r="G35" t="n">
-        <v>4465705.221239785</v>
+        <v>922038.2297345324</v>
       </c>
       <c r="H35" t="n">
-        <v>4399562.920981763</v>
+        <v>870730.9602607959</v>
       </c>
       <c r="I35" t="n">
-        <v>4327257.589136079</v>
+        <v>820634.5520041622</v>
       </c>
       <c r="J35" t="n">
-        <v>4249415.268534195</v>
+        <v>771949.1701330668</v>
       </c>
       <c r="K35" t="n">
-        <v>4166652.512724365</v>
+        <v>724837.7769886239</v>
       </c>
       <c r="L35" t="n">
-        <v>4079570.596425551</v>
+        <v>679428.9586128034</v>
       </c>
       <c r="M35" t="n">
-        <v>3988750.921684627</v>
+        <v>635819.9749595302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2736686.409346217</v>
+        <v>1045735.335773624</v>
       </c>
       <c r="C36" t="n">
-        <v>2736686.409346221</v>
+        <v>1045735.335773765</v>
       </c>
       <c r="D36" t="n">
-        <v>2736686.40934622</v>
+        <v>1045735.335773902</v>
       </c>
       <c r="E36" t="n">
-        <v>2736686.409346224</v>
+        <v>1045735.335774037</v>
       </c>
       <c r="F36" t="n">
-        <v>2736686.409346226</v>
+        <v>1045735.335774167</v>
       </c>
       <c r="G36" t="n">
-        <v>2736686.409346228</v>
+        <v>1045735.335774294</v>
       </c>
       <c r="H36" t="n">
-        <v>2736686.409346229</v>
+        <v>1045735.335774418</v>
       </c>
       <c r="I36" t="n">
-        <v>2736686.409346233</v>
+        <v>1045735.335774538</v>
       </c>
       <c r="J36" t="n">
-        <v>2736686.409346235</v>
+        <v>1045735.335774657</v>
       </c>
       <c r="K36" t="n">
-        <v>2736686.409346236</v>
+        <v>1045735.33577477</v>
       </c>
       <c r="L36" t="n">
-        <v>2736686.409346242</v>
+        <v>1045735.33577488</v>
       </c>
       <c r="M36" t="n">
-        <v>2736686.409346241</v>
+        <v>1045735.335774987</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4860097.772564523</v>
+        <v>3401872.783486925</v>
       </c>
       <c r="C37" t="n">
-        <v>4860097.772564524</v>
+        <v>3401872.783486928</v>
       </c>
       <c r="D37" t="n">
-        <v>4860097.772564525</v>
+        <v>3401872.783486933</v>
       </c>
       <c r="E37" t="n">
-        <v>4860097.772564525</v>
+        <v>3401872.783486938</v>
       </c>
       <c r="F37" t="n">
-        <v>4860097.772564524</v>
+        <v>3401872.783486943</v>
       </c>
       <c r="G37" t="n">
-        <v>4860097.772564524</v>
+        <v>3401872.783486945</v>
       </c>
       <c r="H37" t="n">
-        <v>4860097.772564525</v>
+        <v>3401872.783486949</v>
       </c>
       <c r="I37" t="n">
-        <v>4860097.772564526</v>
+        <v>3401872.783486954</v>
       </c>
       <c r="J37" t="n">
-        <v>4860097.772564526</v>
+        <v>3401872.783486958</v>
       </c>
       <c r="K37" t="n">
-        <v>4860097.772564525</v>
+        <v>3401872.783486959</v>
       </c>
       <c r="L37" t="n">
-        <v>4860097.772564526</v>
+        <v>3401872.783486964</v>
       </c>
       <c r="M37" t="n">
-        <v>4860097.772564526</v>
+        <v>3401872.783486966</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1562295.771775381</v>
+        <v>2913729.462559088</v>
       </c>
       <c r="C38" t="n">
-        <v>1467939.922880356</v>
+        <v>2913729.462559097</v>
       </c>
       <c r="D38" t="n">
-        <v>1377493.953867985</v>
+        <v>2913729.462559099</v>
       </c>
       <c r="E38" t="n">
-        <v>1291037.060464116</v>
+        <v>2913729.462559105</v>
       </c>
       <c r="F38" t="n">
-        <v>1208603.555428503</v>
+        <v>2913729.462559108</v>
       </c>
       <c r="G38" t="n">
-        <v>1130189.844804737</v>
+        <v>2913729.462559112</v>
       </c>
       <c r="H38" t="n">
-        <v>1055760.601201106</v>
+        <v>2913729.462559114</v>
       </c>
       <c r="I38" t="n">
-        <v>985254.2080735002</v>
+        <v>2913729.462559119</v>
       </c>
       <c r="J38" t="n">
-        <v>918587.5441821577</v>
+        <v>2913729.462559123</v>
       </c>
       <c r="K38" t="n">
-        <v>855660.1725874502</v>
+        <v>2913729.462559127</v>
       </c>
       <c r="L38" t="n">
-        <v>796357.9938115883</v>
+        <v>2913729.462559129</v>
       </c>
       <c r="M38" t="n">
-        <v>740556.4181807064</v>
+        <v>2913729.462559132</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2796182.815152928</v>
+        <v>4210226.163502375</v>
       </c>
       <c r="C39" t="n">
-        <v>2796182.815152929</v>
+        <v>4158436.506255414</v>
       </c>
       <c r="D39" t="n">
-        <v>2796182.81515293</v>
+        <v>4102247.699330646</v>
       </c>
       <c r="E39" t="n">
-        <v>2796182.81515293</v>
+        <v>4041986.397134271</v>
       </c>
       <c r="F39" t="n">
-        <v>2796182.815152931</v>
+        <v>3977987.673545872</v>
       </c>
       <c r="G39" t="n">
-        <v>2796182.815152931</v>
+        <v>3910590.302668737</v>
       </c>
       <c r="H39" t="n">
-        <v>2796182.815152933</v>
+        <v>3840132.77328394</v>
       </c>
       <c r="I39" t="n">
-        <v>2796182.815152931</v>
+        <v>3766949.950769075</v>
       </c>
       <c r="J39" t="n">
-        <v>2796182.815152933</v>
+        <v>3691370.309101079</v>
       </c>
       <c r="K39" t="n">
-        <v>2796182.815152933</v>
+        <v>3613713.663582211</v>
       </c>
       <c r="L39" t="n">
-        <v>2796182.815152932</v>
+        <v>3534289.342184183</v>
       </c>
       <c r="M39" t="n">
-        <v>2796182.815152933</v>
+        <v>3453394.739966307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10517249.29128725</v>
+        <v>4319546.605423573</v>
       </c>
       <c r="C40" t="n">
-        <v>10510300.54393533</v>
+        <v>4278035.326515535</v>
       </c>
       <c r="D40" t="n">
-        <v>10494962.98584422</v>
+        <v>4233119.862437695</v>
       </c>
       <c r="E40" t="n">
-        <v>10471418.26977908</v>
+        <v>4185014.129310331</v>
       </c>
       <c r="F40" t="n">
-        <v>10439876.7443218</v>
+        <v>4133934.871268779</v>
       </c>
       <c r="G40" t="n">
-        <v>10400573.16479309</v>
+        <v>4080099.800817389</v>
       </c>
       <c r="H40" t="n">
-        <v>10353762.79587943</v>
+        <v>4023725.985779987</v>
       </c>
       <c r="I40" t="n">
-        <v>10299717.87635914</v>
+        <v>3965028.458507915</v>
       </c>
       <c r="J40" t="n">
-        <v>10238724.41833801</v>
+        <v>3904219.025097325</v>
       </c>
       <c r="K40" t="n">
-        <v>10171079.31529223</v>
+        <v>3841505.254292718</v>
       </c>
       <c r="L40" t="n">
-        <v>10097087.73498309</v>
+        <v>3777089.627526129</v>
       </c>
       <c r="M40" t="n">
-        <v>10017060.77496192</v>
+        <v>3711168.833172292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6950244.123088706</v>
+        <v>2610030.42433594</v>
       </c>
       <c r="C41" t="n">
-        <v>6950244.123088706</v>
+        <v>2595478.772725646</v>
       </c>
       <c r="D41" t="n">
-        <v>6950244.123088704</v>
+        <v>2579098.52676265</v>
       </c>
       <c r="E41" t="n">
-        <v>6950244.123088699</v>
+        <v>2560964.719743044</v>
       </c>
       <c r="F41" t="n">
-        <v>6950244.123088699</v>
+        <v>2541155.83912739</v>
       </c>
       <c r="G41" t="n">
-        <v>6950244.123088699</v>
+        <v>2519753.012238168</v>
       </c>
       <c r="H41" t="n">
-        <v>6950244.123088697</v>
+        <v>2496839.27706757</v>
       </c>
       <c r="I41" t="n">
-        <v>6950244.123088696</v>
+        <v>2472498.93118507</v>
       </c>
       <c r="J41" t="n">
-        <v>6950244.123088695</v>
+        <v>2446816.952245524</v>
       </c>
       <c r="K41" t="n">
-        <v>6950244.123088696</v>
+        <v>2419878.484075309</v>
       </c>
       <c r="L41" t="n">
-        <v>6950244.123088695</v>
+        <v>2391768.382758441</v>
       </c>
       <c r="M41" t="n">
-        <v>6950244.123088698</v>
+        <v>2362570.817558663</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.23442734961946e-310</v>
+        <v>3474447.450050347</v>
       </c>
       <c r="C42" t="n">
-        <v>1.234427272950056e-310</v>
+        <v>3476450.422246831</v>
       </c>
       <c r="D42" t="n">
-        <v>1.234427192465034e-310</v>
+        <v>3477516.310604355</v>
       </c>
       <c r="E42" t="n">
-        <v>1.23442710816444e-310</v>
+        <v>3477655.198807138</v>
       </c>
       <c r="F42" t="n">
-        <v>1.234427020048129e-310</v>
+        <v>3476878.196107972</v>
       </c>
       <c r="G42" t="n">
-        <v>1.234426928115901e-310</v>
+        <v>3475197.354684304</v>
       </c>
       <c r="H42" t="n">
-        <v>1.2344268323684e-310</v>
+        <v>3472625.591150149</v>
       </c>
       <c r="I42" t="n">
-        <v>1.234426732804785e-310</v>
+        <v>3469176.612050103</v>
       </c>
       <c r="J42" t="n">
-        <v>1.234426629425847e-310</v>
+        <v>3464864.843168272</v>
       </c>
       <c r="K42" t="n">
-        <v>1.23442652223129e-310</v>
+        <v>3459705.362491229</v>
       </c>
       <c r="L42" t="n">
-        <v>1.234426411220717e-310</v>
+        <v>3453713.836670263</v>
       </c>
       <c r="M42" t="n">
-        <v>1.234426296394772e-310</v>
+        <v>3446906.460834018</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4696676.944176063</v>
+        <v>2576252.83102915</v>
       </c>
       <c r="C43" t="n">
-        <v>4696676.944176065</v>
+        <v>2576252.83102915</v>
       </c>
       <c r="D43" t="n">
-        <v>4696676.944176066</v>
+        <v>2576252.83102915</v>
       </c>
       <c r="E43" t="n">
-        <v>4696676.944176067</v>
+        <v>2576252.831029152</v>
       </c>
       <c r="F43" t="n">
-        <v>4696676.944176069</v>
+        <v>2576252.831029152</v>
       </c>
       <c r="G43" t="n">
-        <v>4696676.94417607</v>
+        <v>2576252.831029152</v>
       </c>
       <c r="H43" t="n">
-        <v>4696676.944176072</v>
+        <v>2576252.831029152</v>
       </c>
       <c r="I43" t="n">
-        <v>4696676.944176071</v>
+        <v>2576252.831029151</v>
       </c>
       <c r="J43" t="n">
-        <v>4696676.944176074</v>
+        <v>2576252.831029152</v>
       </c>
       <c r="K43" t="n">
-        <v>4696676.944176072</v>
+        <v>2576252.831029151</v>
       </c>
       <c r="L43" t="n">
-        <v>4696676.944176075</v>
+        <v>2576252.831029151</v>
       </c>
       <c r="M43" t="n">
-        <v>4696676.944176074</v>
+        <v>2576252.83102915</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8165899.329887217</v>
+        <v>4766735.689075164</v>
       </c>
       <c r="C44" t="n">
-        <v>8165899.329887213</v>
+        <v>4766735.689075164</v>
       </c>
       <c r="D44" t="n">
-        <v>8165899.329887221</v>
+        <v>4766735.689075165</v>
       </c>
       <c r="E44" t="n">
-        <v>8165899.329887215</v>
+        <v>4766735.689075165</v>
       </c>
       <c r="F44" t="n">
-        <v>8165899.329887219</v>
+        <v>4766735.689075166</v>
       </c>
       <c r="G44" t="n">
-        <v>8165899.329887219</v>
+        <v>4766735.689075166</v>
       </c>
       <c r="H44" t="n">
-        <v>8165899.329887217</v>
+        <v>4766735.689075165</v>
       </c>
       <c r="I44" t="n">
-        <v>8165899.329887226</v>
+        <v>4766735.689075165</v>
       </c>
       <c r="J44" t="n">
-        <v>8165899.329887224</v>
+        <v>4766735.689075165</v>
       </c>
       <c r="K44" t="n">
-        <v>8165899.329887226</v>
+        <v>4766735.689075166</v>
       </c>
       <c r="L44" t="n">
-        <v>8165899.329887226</v>
+        <v>4766735.689075166</v>
       </c>
       <c r="M44" t="n">
-        <v>8165899.329887226</v>
+        <v>4766735.689075166</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3281099.055117935</v>
+        <v>2424821.923289471</v>
       </c>
       <c r="C45" t="n">
-        <v>3281099.315188805</v>
+        <v>2424821.923289471</v>
       </c>
       <c r="D45" t="n">
-        <v>3281099.571490948</v>
+        <v>2424821.923289472</v>
       </c>
       <c r="E45" t="n">
-        <v>3281099.824024354</v>
+        <v>2424821.923289472</v>
       </c>
       <c r="F45" t="n">
-        <v>3281100.07278903</v>
+        <v>2424821.923289472</v>
       </c>
       <c r="G45" t="n">
-        <v>3281100.31778497</v>
+        <v>2424821.923289472</v>
       </c>
       <c r="H45" t="n">
-        <v>3281100.559012169</v>
+        <v>2424821.923289473</v>
       </c>
       <c r="I45" t="n">
-        <v>3281100.79647063</v>
+        <v>2424821.923289473</v>
       </c>
       <c r="J45" t="n">
-        <v>3281101.030160347</v>
+        <v>2424821.923289474</v>
       </c>
       <c r="K45" t="n">
-        <v>3281101.260081314</v>
+        <v>2424821.923289474</v>
       </c>
       <c r="L45" t="n">
-        <v>3281101.486233535</v>
+        <v>2424821.923289473</v>
       </c>
       <c r="M45" t="n">
-        <v>3281101.708617007</v>
+        <v>2424821.923289474</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9356531.346925184</v>
+        <v>2063719.909545401</v>
       </c>
       <c r="C46" t="n">
-        <v>9178292.143323608</v>
+        <v>2063719.909545399</v>
       </c>
       <c r="D46" t="n">
-        <v>8992670.405788872</v>
+        <v>2063719.909545396</v>
       </c>
       <c r="E46" t="n">
-        <v>8800487.620136593</v>
+        <v>2063719.909545395</v>
       </c>
       <c r="F46" t="n">
-        <v>8602573.091743588</v>
+        <v>2063719.909545393</v>
       </c>
       <c r="G46" t="n">
-        <v>8399751.945380788</v>
+        <v>2063719.90954539</v>
       </c>
       <c r="H46" t="n">
-        <v>8192835.31044071</v>
+        <v>2063719.909545388</v>
       </c>
       <c r="I46" t="n">
-        <v>7982612.401620794</v>
+        <v>2063719.909545386</v>
       </c>
       <c r="J46" t="n">
-        <v>7769844.238361174</v>
+        <v>2063719.909545384</v>
       </c>
       <c r="K46" t="n">
-        <v>7555258.776078103</v>
+        <v>2063719.909545381</v>
       </c>
       <c r="L46" t="n">
-        <v>7339547.24882924</v>
+        <v>2063719.909545378</v>
       </c>
       <c r="M46" t="n">
-        <v>7123361.54680776</v>
+        <v>2063719.909545375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1774877.187512283</v>
+        <v>1666336.793449043</v>
       </c>
       <c r="C47" t="n">
-        <v>1709554.534624821</v>
+        <v>1587221.152091511</v>
       </c>
       <c r="D47" t="n">
-        <v>1636064.817565843</v>
+        <v>1501718.526045976</v>
       </c>
       <c r="E47" t="n">
-        <v>1556303.452965163</v>
+        <v>1411919.401429156</v>
       </c>
       <c r="F47" t="n">
-        <v>1472116.534841371</v>
+        <v>1319764.47219169</v>
       </c>
       <c r="G47" t="n">
-        <v>1385217.547087107</v>
+        <v>1226975.407898542</v>
       </c>
       <c r="H47" t="n">
-        <v>1297139.304925072</v>
+        <v>1135022.957675161</v>
       </c>
       <c r="I47" t="n">
-        <v>1209210.929917316</v>
+        <v>1045120.199067321</v>
       </c>
       <c r="J47" t="n">
-        <v>1122552.175091237</v>
+        <v>958232.0430411125</v>
       </c>
       <c r="K47" t="n">
-        <v>1038079.364288429</v>
+        <v>875094.6010583023</v>
       </c>
       <c r="L47" t="n">
-        <v>956518.7123282227</v>
+        <v>796239.8921570184</v>
       </c>
       <c r="M47" t="n">
-        <v>878423.9452027869</v>
+        <v>722022.7618114545</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>346597.6017068525</v>
+        <v>4277221.044804494</v>
       </c>
       <c r="C48" t="n">
-        <v>314261.053763427</v>
+        <v>4213692.986132931</v>
       </c>
       <c r="D48" t="n">
-        <v>283639.2951123419</v>
+        <v>4142199.2031704</v>
       </c>
       <c r="E48" t="n">
-        <v>254934.6656864074</v>
+        <v>4063554.293233323</v>
       </c>
       <c r="F48" t="n">
-        <v>228260.991007862</v>
+        <v>3978574.048928103</v>
       </c>
       <c r="G48" t="n">
-        <v>203661.9166729982</v>
+        <v>3888062.617860421</v>
       </c>
       <c r="H48" t="n">
-        <v>181126.729617693</v>
+        <v>3792802.39141101</v>
       </c>
       <c r="I48" t="n">
-        <v>160603.7637875678</v>
+        <v>3693546.20582765</v>
       </c>
       <c r="J48" t="n">
-        <v>142011.5713515563</v>
+        <v>3591011.493755902</v>
       </c>
       <c r="K48" t="n">
-        <v>125248.0843814402</v>
+        <v>3485876.072579379</v>
       </c>
       <c r="L48" t="n">
-        <v>110198.0087052194</v>
+        <v>3378775.29831895</v>
       </c>
       <c r="M48" t="n">
-        <v>96738.69066710706</v>
+        <v>3270300.351021617</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>631661.8737093026</v>
+        <v>678227.06125265</v>
       </c>
       <c r="C49" t="n">
-        <v>632344.2041721445</v>
+        <v>619793.3814483864</v>
       </c>
       <c r="D49" t="n">
-        <v>632891.1441509479</v>
+        <v>557914.9994794612</v>
       </c>
       <c r="E49" t="n">
-        <v>633303.3424956488</v>
+        <v>495634.9897930347</v>
       </c>
       <c r="F49" t="n">
-        <v>633581.6081352937</v>
+        <v>435248.6080791508</v>
       </c>
       <c r="G49" t="n">
-        <v>633726.8996891781</v>
+        <v>378353.3338251747</v>
       </c>
       <c r="H49" t="n">
-        <v>633740.3155319837</v>
+        <v>325952.6084627577</v>
       </c>
       <c r="I49" t="n">
-        <v>633623.084296154</v>
+        <v>278575.648873262</v>
       </c>
       <c r="J49" t="n">
-        <v>633376.5557953004</v>
+        <v>236392.9964364812</v>
       </c>
       <c r="K49" t="n">
-        <v>633002.1923529839</v>
+        <v>199318.017325996</v>
       </c>
       <c r="L49" t="n">
-        <v>632501.5605217313</v>
+        <v>167090.7867824238</v>
       </c>
       <c r="M49" t="n">
-        <v>631876.3231776771</v>
+        <v>139344.2573620212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1520699.608969908</v>
+        <v>2434605.312108825</v>
       </c>
       <c r="C50" t="n">
-        <v>1485086.513674037</v>
+        <v>2379927.241925972</v>
       </c>
       <c r="D50" t="n">
-        <v>1446377.253410181</v>
+        <v>2317633.313856388</v>
       </c>
       <c r="E50" t="n">
-        <v>1405005.056791715</v>
+        <v>2248880.60419252</v>
       </c>
       <c r="F50" t="n">
-        <v>1361406.253676618</v>
+        <v>2174805.297827279</v>
       </c>
       <c r="G50" t="n">
-        <v>1316008.961784665</v>
+        <v>2096496.353357698</v>
       </c>
       <c r="H50" t="n">
-        <v>1269224.691923415</v>
+        <v>2014977.235744439</v>
       </c>
       <c r="I50" t="n">
-        <v>1221442.327179866</v>
+        <v>1931194.019528475</v>
       </c>
       <c r="J50" t="n">
-        <v>1173024.019147463</v>
+        <v>1846008.469962747</v>
       </c>
       <c r="K50" t="n">
-        <v>1124302.619018384</v>
+        <v>1760194.963949074</v>
       </c>
       <c r="L50" t="n">
-        <v>1075580.32498387</v>
+        <v>1674440.325060429</v>
       </c>
       <c r="M50" t="n">
-        <v>1027128.281414846</v>
+        <v>1589345.823722655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2139404.106087581</v>
+        <v>2701386.302200004</v>
       </c>
       <c r="C51" t="n">
-        <v>2064974.518143052</v>
+        <v>2545659.203812846</v>
       </c>
       <c r="D51" t="n">
-        <v>1978435.744084725</v>
+        <v>2378424.669597329</v>
       </c>
       <c r="E51" t="n">
-        <v>1882403.61497958</v>
+        <v>2204938.028593082</v>
       </c>
       <c r="F51" t="n">
-        <v>1779497.950183928</v>
+        <v>2029708.47780196</v>
       </c>
       <c r="G51" t="n">
-        <v>1672185.260996242</v>
+        <v>1856445.890761385</v>
       </c>
       <c r="H51" t="n">
-        <v>1562686.610378056</v>
+        <v>1688080.586402563</v>
       </c>
       <c r="I51" t="n">
-        <v>1452931.306488894</v>
+        <v>1526825.731473409</v>
       </c>
       <c r="J51" t="n">
-        <v>1344542.041145324</v>
+        <v>1374261.730328372</v>
       </c>
       <c r="K51" t="n">
-        <v>1238840.863699714</v>
+        <v>1231428.914890704</v>
       </c>
       <c r="L51" t="n">
-        <v>1136868.260912898</v>
+        <v>1098919.793713603</v>
       </c>
       <c r="M51" t="n">
-        <v>1039409.794932182</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2489626.866875171</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2491653.428328787</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2492983.787684938</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2493621.427130385</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2493571.015469224</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2492838.318469482</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2491430.11379796</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2489354.110344651</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2486618.871745889</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2483233.743922894</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2479208.786459659</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2474554.707651061</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1206376.752271372</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1142939.655448784</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1076285.510049881</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1007645.390057891</v>
-      </c>
-      <c r="F53" t="n">
-        <v>938210.1832018467</v>
-      </c>
-      <c r="G53" t="n">
-        <v>869060.650747749</v>
-      </c>
-      <c r="H53" t="n">
-        <v>801130.5093429808</v>
-      </c>
-      <c r="I53" t="n">
-        <v>735191.9689886576</v>
-      </c>
-      <c r="J53" t="n">
-        <v>671856.0280650074</v>
-      </c>
-      <c r="K53" t="n">
-        <v>611581.9853210725</v>
-      </c>
-      <c r="L53" t="n">
-        <v>554692.2441594793</v>
-      </c>
-      <c r="M53" t="n">
-        <v>501389.6842039762</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1032368.898386985</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1032371.816969288</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1032374.648525198</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1032377.393052688</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1032380.050549798</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1032382.621014637</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1032385.104445383</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1032387.500840283</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1032389.81019765</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1032392.032515865</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1032394.167793381</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1032396.216028715</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3375546.119371333</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3375546.119371383</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3375546.119371429</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3375546.119371478</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3375546.11937152</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3375546.119371567</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3375546.119371608</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3375546.119371652</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3375546.119371691</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3375546.119371732</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3375546.119371771</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3375546.119371808</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2872401.840288743</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2872401.840289355</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2872401.840289958</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2872401.840290556</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2872401.840291151</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2872401.840291739</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2872401.840292323</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2872401.840292901</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2872401.840293471</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2872401.840294037</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2872401.840294603</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2872401.840295152</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4259318.280331802</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4205831.910614215</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4146942.993954252</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4083042.813493661</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4014543.417067095</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3941868.968163135</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3865448.503071035</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3785709.916725616</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3703075.019496776</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3617955.524874128</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3530749.843869655</v>
-      </c>
-      <c r="M57" t="n">
-        <v>3441840.576181008</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4459303.773959768</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4436977.059640829</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4411549.778967802</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4383146.404810326</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4351896.616940639</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4317934.069924165</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4281395.287073241</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4242418.670324663</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4201143.61662331</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4157709.732068195</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4112256.135706582</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4064920.845449432</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2690047.662904229</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2678441.616681621</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2664705.435376992</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2648909.698970555</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2631131.813712126</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2611454.725772117</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2589965.767791683</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2566755.62719315</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2541917.425946688</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2515545.902265641</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2487736.685425093</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2458585.655569498</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3541220.81369894</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3522615.185729444</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3501538.66135612</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3478081.955666411</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3452341.957109623</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3424420.479942946</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3394423.143856082</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3362458.370389824</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3328636.486518805</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3293068.926472445</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3255867.523524263</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3217143.884091113</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2575194.975378776</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2575194.975378778</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2575194.97537878</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2575194.97537878</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2575194.975378781</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2575194.975378782</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2575194.975378782</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2575194.975378782</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2575194.975378782</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2575194.975378783</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2575194.975378782</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2575194.975378782</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4959474.001314756</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4962786.505606871</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4965787.160792693</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4968475.80422592</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4970852.427244111</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4972917.169971501</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4974670.316246248</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4976112.288669616</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4977243.643774558</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4978065.067311252</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4978577.369647173</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4978781.481279352</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2400751.57701785</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2400751.577017917</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2400751.577017981</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2400751.577018042</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2400751.5770181</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2400751.577018155</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2400751.577018208</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2400751.577018257</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2400751.577018305</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2400751.577018349</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2400751.577018391</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2400751.57701843</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2064291.286800354</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2064291.286800351</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2064291.286800349</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2064291.286800345</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2064291.286800343</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2064291.286800338</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2064291.286800334</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2064291.286800329</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2064291.286800324</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2064291.286800319</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2064291.286800312</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2064291.286800306</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1688173.480076467</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1613280.31027747</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1530631.539885166</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1442429.70943858</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1350786.373611711</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1257616.998940626</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1164586.304086861</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1073087.914443526</v>
-      </c>
-      <c r="J65" t="n">
-        <v>984246.5648681899</v>
-      </c>
-      <c r="K65" t="n">
-        <v>898934.3732605868</v>
-      </c>
-      <c r="L65" t="n">
-        <v>817795.1717196621</v>
-      </c>
-      <c r="M65" t="n">
-        <v>741272.7143280229</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4443713.457604853</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4396430.731632393</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4339876.30742648</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4274779.384326687</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4201907.567520121</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4122047.425255486</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4035988.685912848</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3944511.547691523</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3848376.640918022</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3748317.242282669</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3645033.392574759</v>
-      </c>
-      <c r="M66" t="n">
-        <v>3539187.615494164</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>724638.8410062459</v>
-      </c>
-      <c r="C67" t="n">
-        <v>690955.172915533</v>
-      </c>
-      <c r="D67" t="n">
-        <v>650875.8099775605</v>
-      </c>
-      <c r="E67" t="n">
-        <v>606434.6361980042</v>
-      </c>
-      <c r="F67" t="n">
-        <v>559492.0197184122</v>
-      </c>
-      <c r="G67" t="n">
-        <v>511644.0150900376</v>
-      </c>
-      <c r="H67" t="n">
-        <v>464191.0033311664</v>
-      </c>
-      <c r="I67" t="n">
-        <v>418142.3078741762</v>
-      </c>
-      <c r="J67" t="n">
-        <v>374241.0123951381</v>
-      </c>
-      <c r="K67" t="n">
-        <v>332998.6181596604</v>
-      </c>
-      <c r="L67" t="n">
-        <v>294732.9455095991</v>
-      </c>
-      <c r="M67" t="n">
-        <v>259605.2705986014</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2455870.68037932</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2396651.439735602</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2327784.071572134</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2250821.580693009</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2167308.146898696</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2078727.765328182</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1986469.618116701</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1891806.316283805</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1795881.916174101</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1699707.241276158</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1604160.551619232</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1509992.019065698</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2752867.66300748</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2597777.093168345</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2427726.127632961</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2249067.025247515</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2067232.457552274</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1886671.025040833</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1710876.187279728</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1542468.529535933</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1383304.481778296</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1234593.974125154</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1097016.08319709</v>
-      </c>
-      <c r="M69" t="n">
-        <v>970826.2616833219</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>25505164.07863148</v>
-      </c>
-      <c r="C70" t="n">
-        <v>23512992.09271557</v>
-      </c>
-      <c r="D70" t="n">
-        <v>20931702.62870715</v>
-      </c>
-      <c r="E70" t="n">
-        <v>18109368.95870644</v>
-      </c>
-      <c r="F70" t="n">
-        <v>15304196.99242018</v>
-      </c>
-      <c r="G70" t="n">
-        <v>12683794.26876186</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10341147.37890859</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8314498.323599901</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6605479.29855642</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5193545.785979998</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4046504.196868029</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3127662.625633463</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>23366100.34504088</v>
-      </c>
-      <c r="C71" t="n">
-        <v>23471483.58243112</v>
-      </c>
-      <c r="D71" t="n">
-        <v>23520132.13534988</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23513453.33706274</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23453430.54147152</v>
-      </c>
-      <c r="G71" t="n">
-        <v>23342495.18252353</v>
-      </c>
-      <c r="H71" t="n">
-        <v>23183417.1984455</v>
-      </c>
-      <c r="I71" t="n">
-        <v>22979211.61255947</v>
-      </c>
-      <c r="J71" t="n">
-        <v>22733059.3027879</v>
-      </c>
-      <c r="K71" t="n">
-        <v>22448240.2077859</v>
-      </c>
-      <c r="L71" t="n">
-        <v>22128077.41133712</v>
-      </c>
-      <c r="M71" t="n">
-        <v>21775890.72038324</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3362855.204084583</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3362855.204084557</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3362855.204084532</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3362855.204084506</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3362855.204084476</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3362855.20408445</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3362855.204084429</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3362855.204084396</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3362855.204084367</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3362855.204084338</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3362855.204084303</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3362855.204084277</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7831455.998852411</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7368715.249590755</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6825559.105433291</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6233614.36677809</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5621561.514357165</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5013010.449709702</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4425952.76137602</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3873068.947884931</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3362444.180924219</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2898426.4318079</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2482476.80724587</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2113934.954584869</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="D74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="G74" t="n">
-        <v>16038435.41571508</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16038435.41571508</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="K74" t="n">
-        <v>16038435.41571507</v>
-      </c>
-      <c r="L74" t="n">
-        <v>16038435.41571508</v>
-      </c>
-      <c r="M74" t="n">
-        <v>16038435.41571508</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>21755274.93565343</v>
-      </c>
-      <c r="C75" t="n">
-        <v>21912848.20264411</v>
-      </c>
-      <c r="D75" t="n">
-        <v>22064729.11988325</v>
-      </c>
-      <c r="E75" t="n">
-        <v>22210879.02733687</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22351267.51657198</v>
-      </c>
-      <c r="G75" t="n">
-        <v>22485872.01992893</v>
-      </c>
-      <c r="H75" t="n">
-        <v>22614677.41491323</v>
-      </c>
-      <c r="I75" t="n">
-        <v>22737675.64331669</v>
-      </c>
-      <c r="J75" t="n">
-        <v>22854865.34459324</v>
-      </c>
-      <c r="K75" t="n">
-        <v>22966251.50302806</v>
-      </c>
-      <c r="L75" t="n">
-        <v>23071845.10825285</v>
-      </c>
-      <c r="M75" t="n">
-        <v>23171662.82867285</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>13742712.73925302</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11905400.23246432</v>
-      </c>
-      <c r="D76" t="n">
-        <v>10027168.52873301</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8245524.765890166</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6644557.589034645</v>
-      </c>
-      <c r="G76" t="n">
-        <v>5263195.954001053</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4108215.936989146</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3166370.497663534</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2413789.480935963</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1822483.792932842</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1364429.595600631</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1013859.520051549</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>14367741.58856007</v>
-      </c>
-      <c r="C77" t="n">
-        <v>13891015.59591769</v>
-      </c>
-      <c r="D77" t="n">
-        <v>13291510.90876712</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12597245.89201386</v>
-      </c>
-      <c r="F77" t="n">
-        <v>11835974.88127267</v>
-      </c>
-      <c r="G77" t="n">
-        <v>11033295.66242543</v>
-      </c>
-      <c r="H77" t="n">
-        <v>10211646.25672393</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9389895.348102819</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8583315.114783566</v>
-      </c>
-      <c r="K77" t="n">
-        <v>7803787.583756229</v>
-      </c>
-      <c r="L77" t="n">
-        <v>7060141.355411887</v>
-      </c>
-      <c r="M77" t="n">
-        <v>6358548.801045371</v>
+        <v>976965.5857642918</v>
       </c>
     </row>
   </sheetData>
